--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">date_added</t>
   </si>
@@ -161,6 +161,33 @@
   </si>
   <si>
     <t xml:space="preserve">to be absent from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">настоять на своем/топнуть ногой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to put a foot down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">найти золотую середину</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to strike a happy medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to find a happy medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сожалеть о чем либо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to regret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">делать деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to make money</t>
   </si>
 </sst>
 </file>
@@ -176,6 +203,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -197,6 +225,7 @@
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -331,20 +360,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="35.0102040816326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,6 +392,7 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -668,6 +698,65 @@
       <c r="F21" s="2" t="str">
         <f aca="false">IF(AND(E21 &lt;&gt; "", OR(C21=E21 ,  D21= E21)),"","incorrect")</f>
         <v>incorrect</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>43028</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f aca="false">IF(AND(E22 &lt;&gt; "", OR(C22=E22 ,  D22= E22)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>43028</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f aca="false">IF(AND(E23 &lt;&gt; "", OR(C23=E23 ,  D23= E23)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>43028</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f aca="false">IF(AND(E24 &lt;&gt; "", OR(C24=E24 ,  D24= E24)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>43028</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">date_added</t>
   </si>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">обходитьс тем что _ имеет</t>
   </si>
   <si>
-    <t xml:space="preserve">to make do with all _ have</t>
+    <t xml:space="preserve">to make do with what _ have</t>
   </si>
   <si>
     <t xml:space="preserve">это не относиться к делу</t>
@@ -188,6 +188,51 @@
   </si>
   <si>
     <t xml:space="preserve">to make money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">роскошная жизнь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a life of luxury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">любой ценой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by any means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">эмигрировать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to emigrate to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести _ в курс дела</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to fill _ in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мысленно осутствовать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be lost in thought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be miles away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">быть откровенным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be on the level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разрядить обстановку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to lighten the mood</t>
   </si>
 </sst>
 </file>
@@ -360,20 +405,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,6 +802,118 @@
       </c>
       <c r="C25" s="0" t="s">
         <v>55</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f aca="false">IF(AND(E25 &lt;&gt; "", OR(C25=E25 ,  D25= E25)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>43032</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f aca="false">IF(AND(E26 &lt;&gt; "", OR(C26=E26 ,  D26= E26)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>43032</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f aca="false">IF(AND(E27 &lt;&gt; "", OR(C27=E27 ,  D27= E27)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>43032</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f aca="false">IF(AND(E28 &lt;&gt; "", OR(C28=E28 ,  D28= E28)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>43032</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f aca="false">IF(AND(E29 &lt;&gt; "", OR(C29=E29 ,  D29= E29)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>43032</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f aca="false">IF(AND(E30 &lt;&gt; "", OR(C30=E30 ,  D30= E30)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>43032</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f aca="false">IF(AND(E31 &lt;&gt; "", OR(C31=E31 ,  D31= E31)),"","incorrect")</f>
+        <v>incorrect</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>43032</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f aca="false">IF(AND(E32 &lt;&gt; "", OR(C32=E32 ,  D32= E32)),"","incorrect")</f>
+        <v>incorrect</v>
       </c>
     </row>
   </sheetData>
